--- a/biology/Botanique/Atherospermataceae/Atherospermataceae.xlsx
+++ b/biology/Botanique/Atherospermataceae/Atherospermataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Athérospermatacées se compose de plantes angiospermes de divergence ancienne.
 Ce sont des  arbres ou des arbustes, des régions tempérées à tropicales de l'hémisphère sud. On les rencontre en Australie, Nouvelle-Guinée, Nouvelle-Calédonie, Nouvelle-Zélande, Chili.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Atherosperma lui-même issu du grec άθερ ather (barbe d'épi, épi) et σπέρμα sperma (semence, graine)[1],[2] en référence aux akènes munies de plumets.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Atherosperma lui-même issu du grec άθερ ather (barbe d'épi, épi) et σπέρμα sperma (semence, graine), en référence aux akènes munies de plumets.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avr. 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avr. 2010) :
 Atherosperma (en)
 Daphnandra (en)
 Doryphora (en)
@@ -554,14 +570,14 @@
 Laurelia (en)
 Laureliopsis (en)
 Nemuaron (en) (genre monospécifique endémique de Nouvelle-Calédonie)
-Selon Angiosperm Phylogeny Website                        (16 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (16 mai 2010) :
 Atherosperma
 Daphnandra
 Doryphora
 Dryadodaphne
 Laurelia
 Nemuaron
-Selon DELTA Angio           (13 avr. 2010)[5] :
+Selon DELTA Angio           (13 avr. 2010) :
 Atherosperma
 Daphnandra
 Doryphora
@@ -595,9 +611,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avr. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avr. 2010) :
 genre Atherosperma
 Atherosperma moschatum
 genre Daphnandra
